--- a/test-data/res/xcms_summary.xlsx
+++ b/test-data/res/xcms_summary.xlsx
@@ -21,18 +21,45 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="10">
+  <si>
+    <t>C12_Sample_1</t>
+  </si>
+  <si>
+    <t>C12_Sample_2</t>
+  </si>
+  <si>
+    <t>C12_Sample_3</t>
+  </si>
+  <si>
+    <t>C12_Sample_4</t>
+  </si>
+  <si>
+    <t>C13_Sample_1</t>
+  </si>
+  <si>
+    <t>C13_Sample_2</t>
+  </si>
+  <si>
+    <t>C13_Sample_3</t>
+  </si>
+  <si>
+    <t>C13_Sample_4</t>
+  </si>
+  <si>
+    <t>Best Estimate [%]</t>
+  </si>
+  <si>
+    <t>Standard Error [%]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,11 +87,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,104 +383,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1.074287761276727</v>
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>1.080694205908646</v>
+        <v>1.07428776127673</v>
       </c>
       <c r="C2">
-        <v>1.080582514189544</v>
+        <v>1.08069420590865</v>
       </c>
       <c r="D2">
-        <v>1.080180140988079</v>
+        <v>1.08058251418954</v>
       </c>
       <c r="E2">
-        <v>98.94214150891257</v>
+        <v>1.08018014098808</v>
       </c>
       <c r="F2">
-        <v>98.94739599512783</v>
+        <v>98.9421415089126</v>
       </c>
       <c r="G2">
-        <v>98.93614877070182</v>
+        <v>98.9473959951278</v>
       </c>
       <c r="H2">
-        <v>98.94539524493119</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0.006673444918748122</v>
+        <v>98.9361487707018</v>
+      </c>
+      <c r="I2">
+        <v>98.9453952449312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.003860987554260247</v>
+        <v>0.00667344491874812</v>
       </c>
       <c r="C3">
-        <v>0.004485302209950654</v>
+        <v>0.00386098755426025</v>
       </c>
       <c r="D3">
-        <v>0.005093723128117776</v>
+        <v>0.00448530220995065</v>
       </c>
       <c r="E3">
-        <v>0.008717031446782784</v>
+        <v>0.00509372312811778</v>
       </c>
       <c r="F3">
-        <v>0.008215918959167113</v>
+        <v>0.00871703144678278</v>
       </c>
       <c r="G3">
-        <v>0.006310483586599754</v>
+        <v>0.00821591895916711</v>
       </c>
       <c r="H3">
-        <v>0.007579630624607116</v>
+        <v>0.00631048358659975</v>
+      </c>
+      <c r="I3">
+        <v>0.00757963062460712</v>
       </c>
     </row>
   </sheetData>
@@ -466,103 +483,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1.080568733466055</v>
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>1.070307164826208</v>
+        <v>1.08056873346605</v>
       </c>
       <c r="C2">
-        <v>1.055688853976807</v>
+        <v>1.07030716482621</v>
       </c>
       <c r="D2">
+        <v>1.05568885397681</v>
+      </c>
+      <c r="E2">
         <v>1.06916876051295</v>
       </c>
-      <c r="E2">
-        <v>98.96331469311748</v>
-      </c>
       <c r="F2">
-        <v>98.95435365081376</v>
+        <v>98.9633146931175</v>
       </c>
       <c r="G2">
-        <v>98.97144280532981</v>
+        <v>98.9543536508138</v>
       </c>
       <c r="H2">
-        <v>98.96461923375797</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0.007356739665757893</v>
+        <v>98.9714428053298</v>
+      </c>
+      <c r="I2">
+        <v>98.964619233758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
+        <v>0.00735673966575789</v>
+      </c>
+      <c r="C3">
         <v>0.0073590531481562</v>
       </c>
-      <c r="C3">
-        <v>0.006594763772738807</v>
-      </c>
       <c r="D3">
-        <v>0.006820841768606717</v>
+        <v>0.00659476377273881</v>
       </c>
       <c r="E3">
-        <v>0.007137332975866572</v>
+        <v>0.00682084176860672</v>
       </c>
       <c r="F3">
-        <v>0.005983170418903186</v>
+        <v>0.00713733297586657</v>
       </c>
       <c r="G3">
-        <v>0.004986408478807081</v>
+        <v>0.00598317041890319</v>
       </c>
       <c r="H3">
+        <v>0.00498640847880708</v>
+      </c>
+      <c r="I3">
         <v>0.00466528941863342</v>
       </c>
     </row>
@@ -573,104 +583,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1.078744537990183</v>
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>1.081295024440415</v>
+        <v>1.07874453799018</v>
       </c>
       <c r="C2">
-        <v>1.082054477814639</v>
+        <v>1.08129502444041</v>
       </c>
       <c r="D2">
-        <v>1.076228456239377</v>
+        <v>1.08205447781464</v>
       </c>
       <c r="E2">
-        <v>98.94127983564377</v>
+        <v>1.07622845623938</v>
       </c>
       <c r="F2">
-        <v>98.93897811556151</v>
+        <v>98.9412798356438</v>
       </c>
       <c r="G2">
-        <v>98.94474781482403</v>
+        <v>98.9389781155615</v>
       </c>
       <c r="H2">
+        <v>98.944747814824</v>
+      </c>
+      <c r="I2">
         <v>98.9358396416271</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>0.006652386234256382</v>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.005965066463548367</v>
+        <v>0.00665238623425638</v>
       </c>
       <c r="C3">
-        <v>0.004170742979515154</v>
+        <v>0.00596506646354837</v>
       </c>
       <c r="D3">
-        <v>0.008103972760641403</v>
+        <v>0.00417074297951515</v>
       </c>
       <c r="E3">
-        <v>0.007854787220428197</v>
+        <v>0.0081039727606414</v>
       </c>
       <c r="F3">
-        <v>0.01024035765160764</v>
+        <v>0.0078547872204282</v>
       </c>
       <c r="G3">
-        <v>0.009062699248859565</v>
+        <v>0.0102403576516076</v>
       </c>
       <c r="H3">
-        <v>0.008897511936902178</v>
+        <v>0.00906269924885957</v>
+      </c>
+      <c r="I3">
+        <v>0.00889751193690218</v>
       </c>
     </row>
   </sheetData>
@@ -680,104 +683,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1.086115275743313</v>
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>1.062727154870805</v>
+        <v>1.08611527574331</v>
       </c>
       <c r="C2">
-        <v>1.085102350895587</v>
+        <v>1.0627271548708</v>
       </c>
       <c r="D2">
-        <v>1.066012278118767</v>
+        <v>1.08510235089559</v>
       </c>
       <c r="E2">
-        <v>98.97095765107244</v>
+        <v>1.06601227811877</v>
       </c>
       <c r="F2">
-        <v>99.00347673906423</v>
+        <v>98.9709576510724</v>
       </c>
       <c r="G2">
-        <v>98.98848423645626</v>
+        <v>99.0034767390642</v>
       </c>
       <c r="H2">
-        <v>98.97055423079925</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0.009133662945030483</v>
+        <v>98.9884842364563</v>
+      </c>
+      <c r="I2">
+        <v>98.9705542307993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.01044583049211304</v>
+        <v>0.00913366294503048</v>
       </c>
       <c r="C3">
-        <v>0.008999651796585895</v>
+        <v>0.010445830492113</v>
       </c>
       <c r="D3">
-        <v>0.01195804059918973</v>
+        <v>0.0089996517965859</v>
       </c>
       <c r="E3">
-        <v>0.004068066763198344</v>
+        <v>0.0119580405991897</v>
       </c>
       <c r="F3">
-        <v>0.02273195586501285</v>
+        <v>0.00406806676319834</v>
       </c>
       <c r="G3">
+        <v>0.0227319558650129</v>
+      </c>
+      <c r="H3">
         <v>0.00448397967011869</v>
       </c>
-      <c r="H3">
-        <v>0.003720479854657001</v>
+      <c r="I3">
+        <v>0.003720479854657</v>
       </c>
     </row>
   </sheetData>
@@ -787,104 +783,97 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1.089005917446198</v>
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>1.083596364557336</v>
+        <v>1.0890059174462</v>
       </c>
       <c r="C2">
-        <v>1.089917985583184</v>
+        <v>1.08359636455734</v>
       </c>
       <c r="D2">
-        <v>1.098100531263406</v>
+        <v>1.08991798558318</v>
       </c>
       <c r="E2">
-        <v>98.96512335328525</v>
+        <v>1.09810053126341</v>
       </c>
       <c r="F2">
-        <v>98.96381872388022</v>
+        <v>98.9651233532853</v>
       </c>
       <c r="G2">
+        <v>98.9638187238802</v>
+      </c>
+      <c r="H2">
         <v>98.9604498625152</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>98.9681615446281</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>0.0326952460044989</v>
       </c>
-      <c r="B3">
-        <v>0.04132933079536653</v>
-      </c>
       <c r="C3">
-        <v>0.03900819563604283</v>
+        <v>0.0413293307953665</v>
       </c>
       <c r="D3">
-        <v>0.04222969997426164</v>
+        <v>0.0390081956360428</v>
       </c>
       <c r="E3">
-        <v>0.007550047785498596</v>
+        <v>0.0422296999742616</v>
       </c>
       <c r="F3">
-        <v>0.009786601587125975</v>
+        <v>0.0075500477854986</v>
       </c>
       <c r="G3">
-        <v>0.007222025683158179</v>
+        <v>0.00978660158712598</v>
       </c>
       <c r="H3">
-        <v>0.008133004010035479</v>
+        <v>0.00722202568315818</v>
+      </c>
+      <c r="I3">
+        <v>0.00813300401003548</v>
       </c>
     </row>
   </sheetData>
@@ -894,104 +883,97 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1.083898660407419</v>
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>1.094657947390672</v>
+        <v>1.08389866040742</v>
       </c>
       <c r="C2">
+        <v>1.09465794739067</v>
+      </c>
+      <c r="D2">
         <v>1.0891317375559</v>
       </c>
-      <c r="D2">
-        <v>1.098188646769656</v>
-      </c>
       <c r="E2">
-        <v>98.95929420487168</v>
+        <v>1.09818864676966</v>
       </c>
       <c r="F2">
-        <v>98.96883335121423</v>
+        <v>98.9592942048717</v>
       </c>
       <c r="G2">
-        <v>98.96693942034545</v>
+        <v>98.9688333512142</v>
       </c>
       <c r="H2">
-        <v>98.97259201678963</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0.08555249454800068</v>
+        <v>98.9669394203455</v>
+      </c>
+      <c r="I2">
+        <v>98.9725920167896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.08089306004253181</v>
+        <v>0.0855524945480007</v>
       </c>
       <c r="C3">
-        <v>0.08435961203665092</v>
+        <v>0.0808930600425318</v>
       </c>
       <c r="D3">
-        <v>0.07601440310064855</v>
+        <v>0.0843596120366509</v>
       </c>
       <c r="E3">
+        <v>0.0760144031006486</v>
+      </c>
+      <c r="F3">
         <v>0.0108626898051513</v>
       </c>
-      <c r="F3">
-        <v>0.008652565101632216</v>
-      </c>
       <c r="G3">
-        <v>0.007016743395416081</v>
+        <v>0.00865256510163222</v>
       </c>
       <c r="H3">
-        <v>0.007990805220555683</v>
+        <v>0.00701674339541608</v>
+      </c>
+      <c r="I3">
+        <v>0.00799080522055568</v>
       </c>
     </row>
   </sheetData>
@@ -1001,104 +983,97 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1.092118702066141</v>
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>1.092882307299467</v>
+        <v>1.09211870206614</v>
       </c>
       <c r="C2">
-        <v>1.092914616829964</v>
+        <v>1.09288230729947</v>
       </c>
       <c r="D2">
-        <v>1.090895099610089</v>
+        <v>1.09291461682996</v>
       </c>
       <c r="E2">
-        <v>98.96101276750872</v>
+        <v>1.09089509961009</v>
       </c>
       <c r="F2">
-        <v>98.96854717293299</v>
+        <v>98.9610127675087</v>
       </c>
       <c r="G2">
-        <v>98.96943945144335</v>
+        <v>98.968547172933</v>
       </c>
       <c r="H2">
+        <v>98.9694394514433</v>
+      </c>
+      <c r="I2">
         <v>98.9675183250672</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>0.01660078878805649</v>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.02147100514627215</v>
+        <v>0.0166007887880565</v>
       </c>
       <c r="C3">
-        <v>0.01953969089618595</v>
+        <v>0.0214710051462721</v>
       </c>
       <c r="D3">
-        <v>0.02058633252503936</v>
+        <v>0.019539690896186</v>
       </c>
       <c r="E3">
-        <v>0.01184831092941774</v>
+        <v>0.0205863325250394</v>
       </c>
       <c r="F3">
+        <v>0.0118483109294177</v>
+      </c>
+      <c r="G3">
         <v>0.00977068649416191</v>
       </c>
-      <c r="G3">
-        <v>0.009934267532302433</v>
-      </c>
       <c r="H3">
-        <v>0.008852765482114345</v>
+        <v>0.00993426753230243</v>
+      </c>
+      <c r="I3">
+        <v>0.00885276548211435</v>
       </c>
     </row>
   </sheetData>
@@ -1108,104 +1083,97 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1.095277611662617</v>
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>1.103193508697154</v>
+        <v>1.09527761166262</v>
       </c>
       <c r="C2">
-        <v>1.097158417822836</v>
+        <v>1.10319350869715</v>
       </c>
       <c r="D2">
-        <v>1.093494046191753</v>
+        <v>1.09715841782284</v>
       </c>
       <c r="E2">
-        <v>98.95899385658194</v>
+        <v>1.09349404619175</v>
       </c>
       <c r="F2">
-        <v>98.97773591432966</v>
+        <v>98.9589938565819</v>
       </c>
       <c r="G2">
-        <v>98.97340348461343</v>
+        <v>98.9777359143297</v>
       </c>
       <c r="H2">
-        <v>98.96931415306524</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0.01743405909645457</v>
+        <v>98.9734034846134</v>
+      </c>
+      <c r="I2">
+        <v>98.9693141530652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.02348469414720343</v>
+        <v>0.0174340590964546</v>
       </c>
       <c r="C3">
-        <v>0.02000576236601935</v>
+        <v>0.0234846941472034</v>
       </c>
       <c r="D3">
-        <v>0.02110583852753017</v>
+        <v>0.0200057623660193</v>
       </c>
       <c r="E3">
-        <v>0.01048384160999306</v>
+        <v>0.0211058385275302</v>
       </c>
       <c r="F3">
-        <v>0.01075023031086435</v>
+        <v>0.0104838416099931</v>
       </c>
       <c r="G3">
-        <v>0.007949360748099547</v>
+        <v>0.0107502303108643</v>
       </c>
       <c r="H3">
-        <v>0.007417499811533966</v>
+        <v>0.00794936074809955</v>
+      </c>
+      <c r="I3">
+        <v>0.00741749981153397</v>
       </c>
     </row>
   </sheetData>
@@ -1215,104 +1183,97 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>C12_Sample_4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>C13_Sample_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1.098837197384122</v>
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>1.102392668325493</v>
+        <v>1.09883719738412</v>
       </c>
       <c r="C2">
-        <v>1.103627778841612</v>
+        <v>1.10239266832549</v>
       </c>
       <c r="D2">
-        <v>1.097420225289851</v>
+        <v>1.10362777884161</v>
       </c>
       <c r="E2">
-        <v>98.96316316063395</v>
+        <v>1.09742022528985</v>
       </c>
       <c r="F2">
-        <v>98.97075014697801</v>
+        <v>98.963163160634</v>
       </c>
       <c r="G2">
-        <v>98.97572378701115</v>
+        <v>98.970750146978</v>
       </c>
       <c r="H2">
-        <v>98.97150863518071</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0.01896934531936631</v>
+        <v>98.9757237870111</v>
+      </c>
+      <c r="I2">
+        <v>98.9715086351807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.02052007321651862</v>
+        <v>0.0189693453193663</v>
       </c>
       <c r="C3">
-        <v>0.02255881065219355</v>
+        <v>0.0205200732165186</v>
       </c>
       <c r="D3">
-        <v>0.02184128896898707</v>
+        <v>0.0225588106521935</v>
       </c>
       <c r="E3">
-        <v>0.01321400368465237</v>
+        <v>0.0218412889689871</v>
       </c>
       <c r="F3">
-        <v>0.01218556406368007</v>
+        <v>0.0132140036846524</v>
       </c>
       <c r="G3">
-        <v>0.01462288693337292</v>
+        <v>0.0121855640636801</v>
       </c>
       <c r="H3">
-        <v>0.01239059678557302</v>
+        <v>0.0146228869333729</v>
+      </c>
+      <c r="I3">
+        <v>0.012390596785573</v>
       </c>
     </row>
   </sheetData>
